--- a/data/raw/election/voters-age-sex-education/2023/Yozgat.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Yozgat.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="43">
   <si>
     <t>Yozgat</t>
   </si>
@@ -142,6 +143,12 @@
   </si>
   <si>
     <t>Yozgat Merkez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -675,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -689,11 +696,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,10 +1039,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N368"/>
+  <dimension ref="A1:N370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84:K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,48 +1061,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1143,8 +1159,8 @@
       <c r="G6" s="4">
         <v>446</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.1200000000000001</v>
+      <c r="H6" s="5">
+        <v>1120</v>
       </c>
       <c r="I6" s="4">
         <v>194</v>
@@ -1158,8 +1174,8 @@
       <c r="L6" s="4">
         <v>72</v>
       </c>
-      <c r="M6" s="5">
-        <v>2.032</v>
+      <c r="M6" s="6">
+        <v>2032</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1182,8 +1198,8 @@
       <c r="G7" s="4">
         <v>403</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.198</v>
+      <c r="H7" s="5">
+        <v>1198</v>
       </c>
       <c r="I7" s="4">
         <v>294</v>
@@ -1197,8 +1213,8 @@
       <c r="L7" s="4">
         <v>85</v>
       </c>
-      <c r="M7" s="5">
-        <v>2.214</v>
+      <c r="M7" s="6">
+        <v>2214</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1238,8 +1254,8 @@
       <c r="L8" s="4">
         <v>20</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.2889999999999999</v>
+      <c r="M8" s="6">
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1277,8 +1293,8 @@
       <c r="L9" s="4">
         <v>31</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.26</v>
+      <c r="M9" s="6">
+        <v>1260</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1318,8 +1334,8 @@
       <c r="L10" s="4">
         <v>25</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.1579999999999999</v>
+      <c r="M10" s="6">
+        <v>1158</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1357,8 +1373,8 @@
       <c r="L11" s="4">
         <v>22</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.1830000000000001</v>
+      <c r="M11" s="6">
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1398,8 +1414,8 @@
       <c r="L12" s="4">
         <v>37</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.236</v>
+      <c r="M12" s="6">
+        <v>1236</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1437,8 +1453,8 @@
       <c r="L13" s="4">
         <v>31</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.1659999999999999</v>
+      <c r="M13" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1478,8 +1494,8 @@
       <c r="L14" s="4">
         <v>39</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.2190000000000001</v>
+      <c r="M14" s="6">
+        <v>1219</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1517,8 +1533,8 @@
       <c r="L15" s="4">
         <v>16</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.238</v>
+      <c r="M15" s="6">
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1558,8 +1574,8 @@
       <c r="L16" s="4">
         <v>26</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.0740000000000001</v>
+      <c r="M16" s="6">
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1597,8 +1613,8 @@
       <c r="L17" s="4">
         <v>30</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.139</v>
+      <c r="M17" s="6">
+        <v>1139</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1638,8 +1654,8 @@
       <c r="L18" s="4">
         <v>32</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.125</v>
+      <c r="M18" s="6">
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1677,8 +1693,8 @@
       <c r="L19" s="4">
         <v>26</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.1279999999999999</v>
+      <c r="M19" s="6">
+        <v>1128</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1718,8 +1734,8 @@
       <c r="L20" s="4">
         <v>30</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.115</v>
+      <c r="M20" s="6">
+        <v>1115</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1757,8 +1773,8 @@
       <c r="L21" s="4">
         <v>31</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.151</v>
+      <c r="M21" s="6">
+        <v>1151</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1798,8 +1814,8 @@
       <c r="L22" s="4">
         <v>29</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M22" s="6">
+        <v>1031</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1837,8 +1853,8 @@
       <c r="L23" s="4">
         <v>25</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.1000000000000001</v>
+      <c r="M23" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,7 +1894,7 @@
       <c r="L24" s="4">
         <v>28</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>947</v>
       </c>
     </row>
@@ -1917,7 +1933,7 @@
       <c r="L25" s="4">
         <v>32</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>989</v>
       </c>
     </row>
@@ -1958,7 +1974,7 @@
       <c r="L26" s="4">
         <v>22</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>701</v>
       </c>
     </row>
@@ -1997,7 +2013,7 @@
       <c r="L27" s="4">
         <v>25</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>848</v>
       </c>
     </row>
@@ -2038,7 +2054,7 @@
       <c r="L28" s="4">
         <v>20</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>903</v>
       </c>
     </row>
@@ -2077,54 +2093,54 @@
       <c r="L29" s="4">
         <v>42</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.347</v>
+      <c r="M29" s="6">
+        <v>1347</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7">
         <v>981</v>
       </c>
-      <c r="D30" s="5">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>7.8109999999999999</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.448</v>
-      </c>
-      <c r="G30" s="5">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>6.82</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="D30" s="6">
+        <v>2031</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7811</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2448</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4348</v>
+      </c>
+      <c r="H30" s="6">
+        <v>6820</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3050</v>
+      </c>
+      <c r="J30" s="7">
         <v>298</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>30</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>776</v>
       </c>
-      <c r="M30" s="5">
-        <v>28.593</v>
+      <c r="M30" s="6">
+        <v>28593</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2212,7 @@
       <c r="L32" s="4">
         <v>9</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="7">
         <v>492</v>
       </c>
     </row>
@@ -2235,7 +2251,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="7">
         <v>457</v>
       </c>
     </row>
@@ -2276,7 +2292,7 @@
       <c r="L34" s="4">
         <v>3</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="7">
         <v>340</v>
       </c>
     </row>
@@ -2315,7 +2331,7 @@
       <c r="L35" s="4">
         <v>6</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="7">
         <v>328</v>
       </c>
     </row>
@@ -2356,7 +2372,7 @@
       <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="7">
         <v>304</v>
       </c>
     </row>
@@ -2395,7 +2411,7 @@
       <c r="L37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="7">
         <v>257</v>
       </c>
     </row>
@@ -2436,7 +2452,7 @@
       <c r="L38" s="4">
         <v>2</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <v>295</v>
       </c>
     </row>
@@ -2475,7 +2491,7 @@
       <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <v>246</v>
       </c>
     </row>
@@ -2516,7 +2532,7 @@
       <c r="L40" s="4">
         <v>1</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="7">
         <v>299</v>
       </c>
     </row>
@@ -2555,7 +2571,7 @@
       <c r="L41" s="4">
         <v>1</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="7">
         <v>254</v>
       </c>
     </row>
@@ -2596,7 +2612,7 @@
       <c r="L42" s="4">
         <v>2</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="7">
         <v>272</v>
       </c>
     </row>
@@ -2635,7 +2651,7 @@
       <c r="L43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <v>253</v>
       </c>
     </row>
@@ -2676,7 +2692,7 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <v>291</v>
       </c>
     </row>
@@ -2715,7 +2731,7 @@
       <c r="L45" s="4">
         <v>3</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>290</v>
       </c>
     </row>
@@ -2756,7 +2772,7 @@
       <c r="L46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <v>338</v>
       </c>
     </row>
@@ -2795,7 +2811,7 @@
       <c r="L47" s="4">
         <v>3</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="7">
         <v>363</v>
       </c>
     </row>
@@ -2836,7 +2852,7 @@
       <c r="L48" s="4">
         <v>3</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <v>302</v>
       </c>
     </row>
@@ -2875,7 +2891,7 @@
       <c r="L49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <v>302</v>
       </c>
     </row>
@@ -2916,7 +2932,7 @@
       <c r="L50" s="4">
         <v>2</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>293</v>
       </c>
     </row>
@@ -2955,7 +2971,7 @@
       <c r="L51" s="4">
         <v>3</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <v>295</v>
       </c>
     </row>
@@ -2996,7 +3012,7 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>267</v>
       </c>
     </row>
@@ -3035,7 +3051,7 @@
       <c r="L53" s="4">
         <v>2</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>306</v>
       </c>
     </row>
@@ -3076,7 +3092,7 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>309</v>
       </c>
     </row>
@@ -3115,7 +3131,7 @@
       <c r="L55" s="4">
         <v>6</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <v>504</v>
       </c>
     </row>
@@ -3123,46 +3139,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="7">
         <v>721</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="7">
         <v>680</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.994</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>1994</v>
+      </c>
+      <c r="F56" s="7">
         <v>809</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="G56" s="6">
+        <v>1295</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1527</v>
+      </c>
+      <c r="I56" s="7">
         <v>520</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="7">
         <v>47</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>6</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>58</v>
       </c>
-      <c r="M56" s="5">
-        <v>7.657</v>
+      <c r="M56" s="6">
+        <v>7657</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3234,8 +3250,8 @@
       <c r="L58" s="4">
         <v>41</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.4850000000000001</v>
+      <c r="M58" s="6">
+        <v>1485</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3273,8 +3289,8 @@
       <c r="L59" s="4">
         <v>46</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.58</v>
+      <c r="M59" s="6">
+        <v>1580</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3314,8 +3330,8 @@
       <c r="L60" s="4">
         <v>37</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.083</v>
+      <c r="M60" s="6">
+        <v>1083</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3353,8 +3369,8 @@
       <c r="L61" s="4">
         <v>34</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.0820000000000001</v>
+      <c r="M61" s="6">
+        <v>1082</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3394,8 +3410,8 @@
       <c r="L62" s="4">
         <v>33</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.087</v>
+      <c r="M62" s="6">
+        <v>1087</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3433,8 +3449,8 @@
       <c r="L63" s="4">
         <v>36</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.034</v>
+      <c r="M63" s="6">
+        <v>1034</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3474,8 +3490,8 @@
       <c r="L64" s="4">
         <v>26</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.1839999999999999</v>
+      <c r="M64" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3513,8 +3529,8 @@
       <c r="L65" s="4">
         <v>36</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.024</v>
+      <c r="M65" s="6">
+        <v>1024</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3554,8 +3570,8 @@
       <c r="L66" s="4">
         <v>53</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.1339999999999999</v>
+      <c r="M66" s="6">
+        <v>1134</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3593,7 +3609,7 @@
       <c r="L67" s="4">
         <v>37</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="7">
         <v>955</v>
       </c>
     </row>
@@ -3634,7 +3650,7 @@
       <c r="L68" s="4">
         <v>29</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="7">
         <v>961</v>
       </c>
     </row>
@@ -3673,7 +3689,7 @@
       <c r="L69" s="4">
         <v>35</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="7">
         <v>917</v>
       </c>
     </row>
@@ -3714,7 +3730,7 @@
       <c r="L70" s="4">
         <v>41</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="7">
         <v>959</v>
       </c>
     </row>
@@ -3753,7 +3769,7 @@
       <c r="L71" s="4">
         <v>36</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <v>972</v>
       </c>
     </row>
@@ -3794,8 +3810,8 @@
       <c r="L72" s="4">
         <v>55</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.0920000000000001</v>
+      <c r="M72" s="6">
+        <v>1092</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3833,8 +3849,8 @@
       <c r="L73" s="4">
         <v>50</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.149</v>
+      <c r="M73" s="6">
+        <v>1149</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3874,8 +3890,8 @@
       <c r="L74" s="4">
         <v>58</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.121</v>
+      <c r="M74" s="6">
+        <v>1121</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3913,8 +3929,8 @@
       <c r="L75" s="4">
         <v>59</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.123</v>
+      <c r="M75" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3954,8 +3970,8 @@
       <c r="L76" s="4">
         <v>70</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M76" s="6">
+        <v>1003</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3993,7 +4009,7 @@
       <c r="L77" s="4">
         <v>50</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>986</v>
       </c>
     </row>
@@ -4034,7 +4050,7 @@
       <c r="L78" s="4">
         <v>39</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>726</v>
       </c>
     </row>
@@ -4073,7 +4089,7 @@
       <c r="L79" s="4">
         <v>47</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>877</v>
       </c>
     </row>
@@ -4114,7 +4130,7 @@
       <c r="L80" s="4">
         <v>44</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>685</v>
       </c>
     </row>
@@ -4153,54 +4169,54 @@
       <c r="L81" s="4">
         <v>66</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.159</v>
+      <c r="M81" s="6">
+        <v>1159</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="7">
         <v>407</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>893</v>
       </c>
-      <c r="E82" s="5">
-        <v>7.6689999999999996</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.718</v>
-      </c>
-      <c r="G82" s="5">
-        <v>3.3879999999999999</v>
-      </c>
-      <c r="H82" s="5">
-        <v>6.8339999999999996</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.1520000000000001</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="E82" s="6">
+        <v>7669</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1718</v>
+      </c>
+      <c r="G82" s="6">
+        <v>3388</v>
+      </c>
+      <c r="H82" s="6">
+        <v>6834</v>
+      </c>
+      <c r="I82" s="6">
+        <v>3152</v>
+      </c>
+      <c r="J82" s="7">
         <v>227</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>32</v>
       </c>
-      <c r="L82" s="5">
-        <v>1.0580000000000001</v>
-      </c>
-      <c r="M82" s="5">
-        <v>25.378</v>
+      <c r="L82" s="6">
+        <v>1058</v>
+      </c>
+      <c r="M82" s="6">
+        <v>25378</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4266,13 +4282,13 @@
       <c r="J84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>15</v>
+      <c r="K84" s="4">
+        <v>0</v>
       </c>
       <c r="L84" s="4">
         <v>11</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="7">
         <v>151</v>
       </c>
     </row>
@@ -4305,13 +4321,13 @@
       <c r="J85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>15</v>
+      <c r="K85" s="4">
+        <v>0</v>
       </c>
       <c r="L85" s="4">
         <v>15</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="7">
         <v>170</v>
       </c>
     </row>
@@ -4346,13 +4362,13 @@
       <c r="J86" s="4">
         <v>7</v>
       </c>
-      <c r="K86" s="4" t="s">
-        <v>15</v>
+      <c r="K86" s="4">
+        <v>0</v>
       </c>
       <c r="L86" s="4">
         <v>7</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="7">
         <v>121</v>
       </c>
     </row>
@@ -4385,13 +4401,13 @@
       <c r="J87" s="4">
         <v>4</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>15</v>
+      <c r="K87" s="4">
+        <v>0</v>
       </c>
       <c r="L87" s="4">
         <v>4</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="7">
         <v>121</v>
       </c>
     </row>
@@ -4426,13 +4442,13 @@
       <c r="J88" s="4">
         <v>4</v>
       </c>
-      <c r="K88" s="4" t="s">
-        <v>15</v>
+      <c r="K88" s="4">
+        <v>0</v>
       </c>
       <c r="L88" s="4">
         <v>6</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="7">
         <v>90</v>
       </c>
     </row>
@@ -4465,13 +4481,13 @@
       <c r="J89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>15</v>
+      <c r="K89" s="4">
+        <v>0</v>
       </c>
       <c r="L89" s="4">
         <v>7</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="7">
         <v>87</v>
       </c>
     </row>
@@ -4506,13 +4522,13 @@
       <c r="J90" s="4">
         <v>2</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>15</v>
+      <c r="K90" s="4">
+        <v>0</v>
       </c>
       <c r="L90" s="4">
         <v>5</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="7">
         <v>116</v>
       </c>
     </row>
@@ -4545,13 +4561,13 @@
       <c r="J91" s="4">
         <v>1</v>
       </c>
-      <c r="K91" s="4" t="s">
-        <v>15</v>
+      <c r="K91" s="4">
+        <v>0</v>
       </c>
       <c r="L91" s="4">
         <v>4</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="7">
         <v>90</v>
       </c>
     </row>
@@ -4586,13 +4602,13 @@
       <c r="J92" s="4">
         <v>1</v>
       </c>
-      <c r="K92" s="4" t="s">
-        <v>15</v>
+      <c r="K92" s="4">
+        <v>0</v>
       </c>
       <c r="L92" s="4">
         <v>4</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="7">
         <v>128</v>
       </c>
     </row>
@@ -4625,13 +4641,13 @@
       <c r="J93" s="4">
         <v>1</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>15</v>
+      <c r="K93" s="4">
+        <v>0</v>
       </c>
       <c r="L93" s="4">
         <v>5</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="7">
         <v>113</v>
       </c>
     </row>
@@ -4666,13 +4682,13 @@
       <c r="J94" s="4">
         <v>3</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>15</v>
+      <c r="K94" s="4">
+        <v>0</v>
       </c>
       <c r="L94" s="4">
         <v>9</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="7">
         <v>131</v>
       </c>
     </row>
@@ -4705,13 +4721,13 @@
       <c r="J95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>15</v>
+      <c r="K95" s="4">
+        <v>0</v>
       </c>
       <c r="L95" s="4">
         <v>12</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>118</v>
       </c>
     </row>
@@ -4746,13 +4762,13 @@
       <c r="J96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K96" s="4" t="s">
-        <v>15</v>
+      <c r="K96" s="4">
+        <v>0</v>
       </c>
       <c r="L96" s="4">
         <v>14</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="7">
         <v>125</v>
       </c>
     </row>
@@ -4785,13 +4801,13 @@
       <c r="J97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K97" s="4" t="s">
-        <v>15</v>
+      <c r="K97" s="4">
+        <v>0</v>
       </c>
       <c r="L97" s="4">
         <v>14</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>116</v>
       </c>
     </row>
@@ -4826,13 +4842,13 @@
       <c r="J98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="4" t="s">
-        <v>15</v>
+      <c r="K98" s="4">
+        <v>0</v>
       </c>
       <c r="L98" s="4">
         <v>25</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="7">
         <v>156</v>
       </c>
     </row>
@@ -4865,13 +4881,13 @@
       <c r="J99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>15</v>
+      <c r="K99" s="4">
+        <v>0</v>
       </c>
       <c r="L99" s="4">
         <v>17</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>148</v>
       </c>
     </row>
@@ -4906,13 +4922,13 @@
       <c r="J100" s="4">
         <v>1</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>15</v>
+      <c r="K100" s="4">
+        <v>0</v>
       </c>
       <c r="L100" s="4">
         <v>20</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>155</v>
       </c>
     </row>
@@ -4945,13 +4961,13 @@
       <c r="J101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="4" t="s">
-        <v>15</v>
+      <c r="K101" s="4">
+        <v>0</v>
       </c>
       <c r="L101" s="4">
         <v>12</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>171</v>
       </c>
     </row>
@@ -4986,13 +5002,13 @@
       <c r="J102" s="4">
         <v>1</v>
       </c>
-      <c r="K102" s="4" t="s">
-        <v>15</v>
+      <c r="K102" s="4">
+        <v>0</v>
       </c>
       <c r="L102" s="4">
         <v>23</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>175</v>
       </c>
     </row>
@@ -5025,13 +5041,13 @@
       <c r="J103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>15</v>
+      <c r="K103" s="4">
+        <v>0</v>
       </c>
       <c r="L103" s="4">
         <v>20</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>192</v>
       </c>
     </row>
@@ -5066,13 +5082,13 @@
       <c r="J104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>15</v>
+      <c r="K104" s="4">
+        <v>0</v>
       </c>
       <c r="L104" s="4">
         <v>17</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>143</v>
       </c>
     </row>
@@ -5105,13 +5121,13 @@
       <c r="J105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>15</v>
+      <c r="K105" s="4">
+        <v>0</v>
       </c>
       <c r="L105" s="4">
         <v>22</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>169</v>
       </c>
     </row>
@@ -5146,13 +5162,13 @@
       <c r="J106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K106" s="4" t="s">
-        <v>15</v>
+      <c r="K106" s="4">
+        <v>0</v>
       </c>
       <c r="L106" s="4">
         <v>21</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>180</v>
       </c>
     </row>
@@ -5185,13 +5201,13 @@
       <c r="J107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>15</v>
+      <c r="K107" s="4">
+        <v>0</v>
       </c>
       <c r="L107" s="4">
         <v>15</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>292</v>
       </c>
     </row>
@@ -5199,46 +5215,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="7">
         <v>106</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="7">
         <v>199</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.046</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>1046</v>
+      </c>
+      <c r="F108" s="7">
         <v>225</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="7">
         <v>401</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="7">
         <v>818</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="7">
         <v>329</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="7">
         <v>25</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="4">
         <v>0</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>309</v>
       </c>
-      <c r="M108" s="5">
-        <v>3.4580000000000002</v>
+      <c r="M108" s="6">
+        <v>3458</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5310,7 +5326,7 @@
       <c r="L110" s="4">
         <v>56</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="7">
         <v>509</v>
       </c>
     </row>
@@ -5349,7 +5365,7 @@
       <c r="L111" s="4">
         <v>61</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="7">
         <v>465</v>
       </c>
     </row>
@@ -5390,7 +5406,7 @@
       <c r="L112" s="4">
         <v>18</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="7">
         <v>281</v>
       </c>
     </row>
@@ -5429,7 +5445,7 @@
       <c r="L113" s="4">
         <v>6</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="7">
         <v>279</v>
       </c>
     </row>
@@ -5470,7 +5486,7 @@
       <c r="L114" s="4">
         <v>13</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="7">
         <v>284</v>
       </c>
     </row>
@@ -5509,7 +5525,7 @@
       <c r="L115" s="4">
         <v>8</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="7">
         <v>266</v>
       </c>
     </row>
@@ -5550,7 +5566,7 @@
       <c r="L116" s="4">
         <v>12</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="7">
         <v>315</v>
       </c>
     </row>
@@ -5589,7 +5605,7 @@
       <c r="L117" s="4">
         <v>13</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="7">
         <v>265</v>
       </c>
     </row>
@@ -5630,7 +5646,7 @@
       <c r="L118" s="4">
         <v>23</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="7">
         <v>360</v>
       </c>
     </row>
@@ -5669,7 +5685,7 @@
       <c r="L119" s="4">
         <v>16</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="7">
         <v>282</v>
       </c>
     </row>
@@ -5710,7 +5726,7 @@
       <c r="L120" s="4">
         <v>18</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="7">
         <v>324</v>
       </c>
     </row>
@@ -5749,7 +5765,7 @@
       <c r="L121" s="4">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="7">
         <v>275</v>
       </c>
     </row>
@@ -5790,7 +5806,7 @@
       <c r="L122" s="4">
         <v>25</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="7">
         <v>328</v>
       </c>
     </row>
@@ -5829,7 +5845,7 @@
       <c r="L123" s="4">
         <v>25</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>348</v>
       </c>
     </row>
@@ -5870,7 +5886,7 @@
       <c r="L124" s="4">
         <v>44</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="7">
         <v>438</v>
       </c>
     </row>
@@ -5909,7 +5925,7 @@
       <c r="L125" s="4">
         <v>32</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>449</v>
       </c>
     </row>
@@ -5950,7 +5966,7 @@
       <c r="L126" s="4">
         <v>31</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>472</v>
       </c>
     </row>
@@ -5989,7 +6005,7 @@
       <c r="L127" s="4">
         <v>32</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>530</v>
       </c>
     </row>
@@ -6030,7 +6046,7 @@
       <c r="L128" s="4">
         <v>29</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>447</v>
       </c>
     </row>
@@ -6069,7 +6085,7 @@
       <c r="L129" s="4">
         <v>31</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>465</v>
       </c>
     </row>
@@ -6110,7 +6126,7 @@
       <c r="L130" s="4">
         <v>25</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>329</v>
       </c>
     </row>
@@ -6149,7 +6165,7 @@
       <c r="L131" s="4">
         <v>41</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>395</v>
       </c>
     </row>
@@ -6190,7 +6206,7 @@
       <c r="L132" s="4">
         <v>49</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>456</v>
       </c>
     </row>
@@ -6229,7 +6245,7 @@
       <c r="L133" s="4">
         <v>47</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>735</v>
       </c>
     </row>
@@ -6237,46 +6253,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="7">
         <v>320</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="7">
         <v>785</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.6859999999999999</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>2686</v>
+      </c>
+      <c r="F134" s="7">
         <v>752</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.194</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1.996</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="G134" s="6">
+        <v>1194</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1996</v>
+      </c>
+      <c r="I134" s="7">
         <v>828</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="7">
         <v>62</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>4</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>670</v>
       </c>
-      <c r="M134" s="5">
-        <v>9.2970000000000006</v>
+      <c r="M134" s="6">
+        <v>9297</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6348,7 +6364,7 @@
       <c r="L136" s="4">
         <v>11</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="7">
         <v>931</v>
       </c>
     </row>
@@ -6387,7 +6403,7 @@
       <c r="L137" s="4">
         <v>9</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="7">
         <v>997</v>
       </c>
     </row>
@@ -6428,7 +6444,7 @@
       <c r="L138" s="4">
         <v>3</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="7">
         <v>512</v>
       </c>
     </row>
@@ -6467,7 +6483,7 @@
       <c r="L139" s="4">
         <v>16</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="7">
         <v>541</v>
       </c>
     </row>
@@ -6508,7 +6524,7 @@
       <c r="L140" s="4">
         <v>3</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="7">
         <v>452</v>
       </c>
     </row>
@@ -6547,7 +6563,7 @@
       <c r="L141" s="4">
         <v>12</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="7">
         <v>473</v>
       </c>
     </row>
@@ -6588,7 +6604,7 @@
       <c r="L142" s="4">
         <v>6</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="7">
         <v>466</v>
       </c>
     </row>
@@ -6627,7 +6643,7 @@
       <c r="L143" s="4">
         <v>9</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="7">
         <v>460</v>
       </c>
     </row>
@@ -6668,7 +6684,7 @@
       <c r="L144" s="4">
         <v>4</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="7">
         <v>538</v>
       </c>
     </row>
@@ -6707,7 +6723,7 @@
       <c r="L145" s="4">
         <v>3</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="7">
         <v>541</v>
       </c>
     </row>
@@ -6748,7 +6764,7 @@
       <c r="L146" s="4">
         <v>3</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>497</v>
       </c>
     </row>
@@ -6787,7 +6803,7 @@
       <c r="L147" s="4">
         <v>8</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="7">
         <v>574</v>
       </c>
     </row>
@@ -6828,7 +6844,7 @@
       <c r="L148" s="4">
         <v>6</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>618</v>
       </c>
     </row>
@@ -6867,7 +6883,7 @@
       <c r="L149" s="4">
         <v>11</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>588</v>
       </c>
     </row>
@@ -6908,7 +6924,7 @@
       <c r="L150" s="4">
         <v>4</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>606</v>
       </c>
     </row>
@@ -6947,7 +6963,7 @@
       <c r="L151" s="4">
         <v>11</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>676</v>
       </c>
     </row>
@@ -6988,7 +7004,7 @@
       <c r="L152" s="4">
         <v>8</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>641</v>
       </c>
     </row>
@@ -7027,7 +7043,7 @@
       <c r="L153" s="4">
         <v>6</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>615</v>
       </c>
     </row>
@@ -7068,7 +7084,7 @@
       <c r="L154" s="4">
         <v>5</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>585</v>
       </c>
     </row>
@@ -7107,7 +7123,7 @@
       <c r="L155" s="4">
         <v>7</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>600</v>
       </c>
     </row>
@@ -7148,7 +7164,7 @@
       <c r="L156" s="4">
         <v>7</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>442</v>
       </c>
     </row>
@@ -7187,7 +7203,7 @@
       <c r="L157" s="4">
         <v>9</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>534</v>
       </c>
     </row>
@@ -7228,7 +7244,7 @@
       <c r="L158" s="4">
         <v>3</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>525</v>
       </c>
     </row>
@@ -7267,7 +7283,7 @@
       <c r="L159" s="4">
         <v>10</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>740</v>
       </c>
     </row>
@@ -7275,46 +7291,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="D160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="6">
+        <v>1003</v>
+      </c>
+      <c r="D160" s="7">
         <v>814</v>
       </c>
-      <c r="E160" s="5">
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.877</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.84</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.341</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="E160" s="6">
+        <v>4599</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1344</v>
+      </c>
+      <c r="G160" s="6">
+        <v>1877</v>
+      </c>
+      <c r="H160" s="6">
+        <v>2840</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1341</v>
+      </c>
+      <c r="J160" s="7">
         <v>147</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>13</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>174</v>
       </c>
-      <c r="M160" s="5">
-        <v>14.151999999999999</v>
+      <c r="M160" s="6">
+        <v>14152</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7402,7 @@
       <c r="L162" s="4">
         <v>12</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="7">
         <v>558</v>
       </c>
     </row>
@@ -7425,7 +7441,7 @@
       <c r="L163" s="4">
         <v>2</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="7">
         <v>579</v>
       </c>
     </row>
@@ -7466,7 +7482,7 @@
       <c r="L164" s="4">
         <v>2</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="7">
         <v>309</v>
       </c>
     </row>
@@ -7505,7 +7521,7 @@
       <c r="L165" s="4">
         <v>11</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="7">
         <v>300</v>
       </c>
     </row>
@@ -7546,7 +7562,7 @@
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="7">
         <v>279</v>
       </c>
     </row>
@@ -7585,7 +7601,7 @@
       <c r="L167" s="4">
         <v>8</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="7">
         <v>279</v>
       </c>
     </row>
@@ -7626,7 +7642,7 @@
       <c r="L168" s="4">
         <v>2</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="7">
         <v>271</v>
       </c>
     </row>
@@ -7665,7 +7681,7 @@
       <c r="L169" s="4">
         <v>6</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="7">
         <v>255</v>
       </c>
     </row>
@@ -7706,7 +7722,7 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="7">
         <v>275</v>
       </c>
     </row>
@@ -7745,7 +7761,7 @@
       <c r="L171" s="4">
         <v>5</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="7">
         <v>302</v>
       </c>
     </row>
@@ -7786,7 +7802,7 @@
       <c r="L172" s="4">
         <v>1</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="7">
         <v>285</v>
       </c>
     </row>
@@ -7825,7 +7841,7 @@
       <c r="L173" s="4">
         <v>2</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="7">
         <v>326</v>
       </c>
     </row>
@@ -7866,7 +7882,7 @@
       <c r="L174" s="4">
         <v>2</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="7">
         <v>313</v>
       </c>
     </row>
@@ -7905,7 +7921,7 @@
       <c r="L175" s="4">
         <v>7</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="7">
         <v>277</v>
       </c>
     </row>
@@ -7946,7 +7962,7 @@
       <c r="L176" s="4">
         <v>2</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="7">
         <v>320</v>
       </c>
     </row>
@@ -7985,7 +8001,7 @@
       <c r="L177" s="4">
         <v>3</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="7">
         <v>361</v>
       </c>
     </row>
@@ -8026,7 +8042,7 @@
       <c r="L178" s="4">
         <v>1</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="7">
         <v>328</v>
       </c>
     </row>
@@ -8065,7 +8081,7 @@
       <c r="L179" s="4">
         <v>8</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="7">
         <v>310</v>
       </c>
     </row>
@@ -8106,7 +8122,7 @@
       <c r="L180" s="4">
         <v>2</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="7">
         <v>263</v>
       </c>
     </row>
@@ -8145,7 +8161,7 @@
       <c r="L181" s="4">
         <v>1</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="7">
         <v>282</v>
       </c>
     </row>
@@ -8186,7 +8202,7 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>226</v>
       </c>
     </row>
@@ -8225,7 +8241,7 @@
       <c r="L183" s="4">
         <v>3</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>262</v>
       </c>
     </row>
@@ -8266,7 +8282,7 @@
       <c r="L184" s="4">
         <v>1</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>224</v>
       </c>
     </row>
@@ -8305,7 +8321,7 @@
       <c r="L185" s="4">
         <v>9</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="7">
         <v>290</v>
       </c>
     </row>
@@ -8313,46 +8329,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="7">
         <v>448</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="7">
         <v>349</v>
       </c>
-      <c r="E186" s="5">
-        <v>2.4860000000000002</v>
-      </c>
-      <c r="F186" s="5">
+      <c r="E186" s="6">
+        <v>2486</v>
+      </c>
+      <c r="F186" s="7">
         <v>714</v>
       </c>
-      <c r="G186" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="H186" s="5">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="I186" s="5">
+      <c r="G186" s="6">
+        <v>1280</v>
+      </c>
+      <c r="H186" s="6">
+        <v>1455</v>
+      </c>
+      <c r="I186" s="7">
         <v>586</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="7">
         <v>56</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="7">
         <v>5</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="7">
         <v>95</v>
       </c>
-      <c r="M186" s="5">
-        <v>7.4740000000000002</v>
+      <c r="M186" s="6">
+        <v>7474</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8424,7 +8440,7 @@
       <c r="L188" s="4">
         <v>42</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="7">
         <v>602</v>
       </c>
     </row>
@@ -8463,7 +8479,7 @@
       <c r="L189" s="4">
         <v>36</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="7">
         <v>639</v>
       </c>
     </row>
@@ -8504,7 +8520,7 @@
       <c r="L190" s="4">
         <v>5</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="7">
         <v>404</v>
       </c>
     </row>
@@ -8543,7 +8559,7 @@
       <c r="L191" s="4">
         <v>23</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="7">
         <v>429</v>
       </c>
     </row>
@@ -8584,7 +8600,7 @@
       <c r="L192" s="4">
         <v>8</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="7">
         <v>362</v>
       </c>
     </row>
@@ -8623,7 +8639,7 @@
       <c r="L193" s="4">
         <v>15</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="7">
         <v>311</v>
       </c>
     </row>
@@ -8664,7 +8680,7 @@
       <c r="L194" s="4">
         <v>16</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="7">
         <v>323</v>
       </c>
     </row>
@@ -8703,7 +8719,7 @@
       <c r="L195" s="4">
         <v>10</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="7">
         <v>275</v>
       </c>
     </row>
@@ -8744,7 +8760,7 @@
       <c r="L196" s="4">
         <v>9</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="7">
         <v>294</v>
       </c>
     </row>
@@ -8783,7 +8799,7 @@
       <c r="L197" s="4">
         <v>13</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="7">
         <v>304</v>
       </c>
     </row>
@@ -8824,7 +8840,7 @@
       <c r="L198" s="4">
         <v>6</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="7">
         <v>292</v>
       </c>
     </row>
@@ -8863,7 +8879,7 @@
       <c r="L199" s="4">
         <v>2</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="7">
         <v>299</v>
       </c>
     </row>
@@ -8904,7 +8920,7 @@
       <c r="L200" s="4">
         <v>3</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="7">
         <v>280</v>
       </c>
     </row>
@@ -8943,7 +8959,7 @@
       <c r="L201" s="4">
         <v>7</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="7">
         <v>282</v>
       </c>
     </row>
@@ -8984,7 +9000,7 @@
       <c r="L202" s="4">
         <v>7</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="7">
         <v>279</v>
       </c>
     </row>
@@ -9023,7 +9039,7 @@
       <c r="L203" s="4">
         <v>9</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="7">
         <v>357</v>
       </c>
     </row>
@@ -9064,7 +9080,7 @@
       <c r="L204" s="4">
         <v>2</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="7">
         <v>282</v>
       </c>
     </row>
@@ -9103,7 +9119,7 @@
       <c r="L205" s="4">
         <v>8</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="7">
         <v>291</v>
       </c>
     </row>
@@ -9144,7 +9160,7 @@
       <c r="L206" s="4">
         <v>10</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>264</v>
       </c>
     </row>
@@ -9183,7 +9199,7 @@
       <c r="L207" s="4">
         <v>9</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>270</v>
       </c>
     </row>
@@ -9224,7 +9240,7 @@
       <c r="L208" s="4">
         <v>4</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>210</v>
       </c>
     </row>
@@ -9263,7 +9279,7 @@
       <c r="L209" s="4">
         <v>7</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>237</v>
       </c>
     </row>
@@ -9304,7 +9320,7 @@
       <c r="L210" s="4">
         <v>5</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>261</v>
       </c>
     </row>
@@ -9343,7 +9359,7 @@
       <c r="L211" s="4">
         <v>9</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>364</v>
       </c>
     </row>
@@ -9351,46 +9367,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="7">
         <v>266</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="7">
         <v>629</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="F212" s="5">
+      <c r="E212" s="6">
+        <v>2599</v>
+      </c>
+      <c r="F212" s="7">
         <v>801</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>1.4910000000000001</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="G212" s="6">
+        <v>1187</v>
+      </c>
+      <c r="H212" s="6">
+        <v>1491</v>
+      </c>
+      <c r="I212" s="7">
         <v>606</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="7">
         <v>63</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="7">
         <v>4</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>265</v>
       </c>
-      <c r="M212" s="5">
-        <v>7.9109999999999996</v>
+      <c r="M212" s="6">
+        <v>7911</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9462,8 +9478,8 @@
       <c r="L214" s="4">
         <v>56</v>
       </c>
-      <c r="M214" s="5">
-        <v>1.6060000000000001</v>
+      <c r="M214" s="6">
+        <v>1606</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9501,8 +9517,8 @@
       <c r="L215" s="4">
         <v>51</v>
       </c>
-      <c r="M215" s="5">
-        <v>1.6619999999999999</v>
+      <c r="M215" s="6">
+        <v>1662</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9542,8 +9558,8 @@
       <c r="L216" s="4">
         <v>24</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.0660000000000001</v>
+      <c r="M216" s="6">
+        <v>1066</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9581,8 +9597,8 @@
       <c r="L217" s="4">
         <v>28</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.0349999999999999</v>
+      <c r="M217" s="6">
+        <v>1035</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9622,7 +9638,7 @@
       <c r="L218" s="4">
         <v>29</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="7">
         <v>959</v>
       </c>
     </row>
@@ -9661,7 +9677,7 @@
       <c r="L219" s="4">
         <v>23</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="7">
         <v>841</v>
       </c>
     </row>
@@ -9702,7 +9718,7 @@
       <c r="L220" s="4">
         <v>32</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="7">
         <v>988</v>
       </c>
     </row>
@@ -9741,7 +9757,7 @@
       <c r="L221" s="4">
         <v>38</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="7">
         <v>880</v>
       </c>
     </row>
@@ -9782,7 +9798,7 @@
       <c r="L222" s="4">
         <v>46</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="7">
         <v>985</v>
       </c>
     </row>
@@ -9821,7 +9837,7 @@
       <c r="L223" s="4">
         <v>35</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="7">
         <v>913</v>
       </c>
     </row>
@@ -9862,7 +9878,7 @@
       <c r="L224" s="4">
         <v>35</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="7">
         <v>916</v>
       </c>
     </row>
@@ -9901,7 +9917,7 @@
       <c r="L225" s="4">
         <v>34</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="7">
         <v>924</v>
       </c>
     </row>
@@ -9942,7 +9958,7 @@
       <c r="L226" s="4">
         <v>34</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="7">
         <v>941</v>
       </c>
     </row>
@@ -9981,7 +9997,7 @@
       <c r="L227" s="4">
         <v>38</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="7">
         <v>924</v>
       </c>
     </row>
@@ -10022,7 +10038,7 @@
       <c r="L228" s="4">
         <v>31</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="7">
         <v>975</v>
       </c>
     </row>
@@ -10061,8 +10077,8 @@
       <c r="L229" s="4">
         <v>29</v>
       </c>
-      <c r="M229" s="5">
-        <v>1.1020000000000001</v>
+      <c r="M229" s="6">
+        <v>1102</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10102,7 +10118,7 @@
       <c r="L230" s="4">
         <v>28</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="7">
         <v>996</v>
       </c>
     </row>
@@ -10141,7 +10157,7 @@
       <c r="L231" s="4">
         <v>24</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="7">
         <v>921</v>
       </c>
     </row>
@@ -10182,7 +10198,7 @@
       <c r="L232" s="4">
         <v>29</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="7">
         <v>861</v>
       </c>
     </row>
@@ -10221,7 +10237,7 @@
       <c r="L233" s="4">
         <v>35</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="7">
         <v>928</v>
       </c>
     </row>
@@ -10262,7 +10278,7 @@
       <c r="L234" s="4">
         <v>22</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="7">
         <v>627</v>
       </c>
     </row>
@@ -10301,7 +10317,7 @@
       <c r="L235" s="4">
         <v>39</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="7">
         <v>837</v>
       </c>
     </row>
@@ -10342,7 +10358,7 @@
       <c r="L236" s="4">
         <v>40</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="7">
         <v>785</v>
       </c>
     </row>
@@ -10381,54 +10397,54 @@
       <c r="L237" s="4">
         <v>38</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.256</v>
+      <c r="M237" s="6">
+        <v>1256</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>1.091</v>
-      </c>
-      <c r="D238" s="5">
-        <v>1.419</v>
-      </c>
-      <c r="E238" s="5">
-        <v>7.6870000000000003</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.9810000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="H238" s="5">
-        <v>5.1920000000000002</v>
-      </c>
-      <c r="I238" s="5">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="8"/>
+      <c r="C238" s="6">
+        <v>1091</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1419</v>
+      </c>
+      <c r="E238" s="6">
+        <v>7687</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1981</v>
+      </c>
+      <c r="G238" s="6">
+        <v>2909</v>
+      </c>
+      <c r="H238" s="6">
+        <v>5192</v>
+      </c>
+      <c r="I238" s="6">
+        <v>2586</v>
+      </c>
+      <c r="J238" s="7">
         <v>237</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="7">
         <v>8</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="7">
         <v>818</v>
       </c>
-      <c r="M238" s="5">
-        <v>23.928000000000001</v>
+      <c r="M238" s="6">
+        <v>23928</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10482,11 +10498,11 @@
       <c r="F240" s="4">
         <v>1</v>
       </c>
-      <c r="G240" s="4">
-        <v>1.006</v>
-      </c>
-      <c r="H240" s="4">
-        <v>2.5640000000000001</v>
+      <c r="G240" s="5">
+        <v>1006</v>
+      </c>
+      <c r="H240" s="5">
+        <v>2564</v>
       </c>
       <c r="I240" s="4">
         <v>455</v>
@@ -10500,8 +10516,8 @@
       <c r="L240" s="4">
         <v>107</v>
       </c>
-      <c r="M240" s="5">
-        <v>4.25</v>
+      <c r="M240" s="6">
+        <v>4250</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10524,8 +10540,8 @@
       <c r="G241" s="4">
         <v>916</v>
       </c>
-      <c r="H241" s="4">
-        <v>2.5350000000000001</v>
+      <c r="H241" s="5">
+        <v>2535</v>
       </c>
       <c r="I241" s="4">
         <v>704</v>
@@ -10539,8 +10555,8 @@
       <c r="L241" s="4">
         <v>72</v>
       </c>
-      <c r="M241" s="5">
-        <v>4.3470000000000004</v>
+      <c r="M241" s="6">
+        <v>4347</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10580,8 +10596,8 @@
       <c r="L242" s="4">
         <v>46</v>
       </c>
-      <c r="M242" s="5">
-        <v>2.5550000000000002</v>
+      <c r="M242" s="6">
+        <v>2555</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10607,8 +10623,8 @@
       <c r="H243" s="4">
         <v>655</v>
       </c>
-      <c r="I243" s="4">
-        <v>1.0900000000000001</v>
+      <c r="I243" s="5">
+        <v>1090</v>
       </c>
       <c r="J243" s="4">
         <v>74</v>
@@ -10619,8 +10635,8 @@
       <c r="L243" s="4">
         <v>78</v>
       </c>
-      <c r="M243" s="5">
-        <v>2.82</v>
+      <c r="M243" s="6">
+        <v>2820</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10660,8 +10676,8 @@
       <c r="L244" s="4">
         <v>62</v>
       </c>
-      <c r="M244" s="5">
-        <v>2.5649999999999999</v>
+      <c r="M244" s="6">
+        <v>2565</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10699,8 +10715,8 @@
       <c r="L245" s="4">
         <v>65</v>
       </c>
-      <c r="M245" s="5">
-        <v>2.5270000000000001</v>
+      <c r="M245" s="6">
+        <v>2527</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10725,8 +10741,8 @@
       <c r="G246" s="4">
         <v>273</v>
       </c>
-      <c r="H246" s="4">
-        <v>1.0549999999999999</v>
+      <c r="H246" s="5">
+        <v>1055</v>
       </c>
       <c r="I246" s="4">
         <v>577</v>
@@ -10740,8 +10756,8 @@
       <c r="L246" s="4">
         <v>71</v>
       </c>
-      <c r="M246" s="5">
-        <v>2.7309999999999999</v>
+      <c r="M246" s="6">
+        <v>2731</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10779,8 +10795,8 @@
       <c r="L247" s="4">
         <v>70</v>
       </c>
-      <c r="M247" s="5">
-        <v>2.5670000000000002</v>
+      <c r="M247" s="6">
+        <v>2567</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10805,8 +10821,8 @@
       <c r="G248" s="4">
         <v>471</v>
       </c>
-      <c r="H248" s="4">
-        <v>1.0469999999999999</v>
+      <c r="H248" s="5">
+        <v>1047</v>
       </c>
       <c r="I248" s="4">
         <v>426</v>
@@ -10820,8 +10836,8 @@
       <c r="L248" s="4">
         <v>59</v>
       </c>
-      <c r="M248" s="5">
-        <v>2.8050000000000002</v>
+      <c r="M248" s="6">
+        <v>2805</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10835,8 +10851,8 @@
       <c r="D249" s="4">
         <v>19</v>
       </c>
-      <c r="E249" s="4">
-        <v>1.0089999999999999</v>
+      <c r="E249" s="5">
+        <v>1009</v>
       </c>
       <c r="F249" s="4">
         <v>342</v>
@@ -10859,8 +10875,8 @@
       <c r="L249" s="4">
         <v>53</v>
       </c>
-      <c r="M249" s="5">
-        <v>2.5579999999999998</v>
+      <c r="M249" s="6">
+        <v>2558</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10900,8 +10916,8 @@
       <c r="L250" s="4">
         <v>54</v>
       </c>
-      <c r="M250" s="5">
-        <v>2.3420000000000001</v>
+      <c r="M250" s="6">
+        <v>2342</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10915,8 +10931,8 @@
       <c r="D251" s="4">
         <v>36</v>
       </c>
-      <c r="E251" s="4">
-        <v>1.0620000000000001</v>
+      <c r="E251" s="5">
+        <v>1062</v>
       </c>
       <c r="F251" s="4">
         <v>332</v>
@@ -10939,8 +10955,8 @@
       <c r="L251" s="4">
         <v>62</v>
       </c>
-      <c r="M251" s="5">
-        <v>2.371</v>
+      <c r="M251" s="6">
+        <v>2371</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10980,8 +10996,8 @@
       <c r="L252" s="4">
         <v>54</v>
       </c>
-      <c r="M252" s="5">
-        <v>2.335</v>
+      <c r="M252" s="6">
+        <v>2335</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10995,8 +11011,8 @@
       <c r="D253" s="4">
         <v>70</v>
       </c>
-      <c r="E253" s="4">
-        <v>1.2629999999999999</v>
+      <c r="E253" s="5">
+        <v>1263</v>
       </c>
       <c r="F253" s="4">
         <v>303</v>
@@ -11019,8 +11035,8 @@
       <c r="L253" s="4">
         <v>89</v>
       </c>
-      <c r="M253" s="5">
-        <v>2.34</v>
+      <c r="M253" s="6">
+        <v>2340</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11060,8 +11076,8 @@
       <c r="L254" s="4">
         <v>80</v>
       </c>
-      <c r="M254" s="5">
-        <v>2.226</v>
+      <c r="M254" s="6">
+        <v>2226</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11075,8 +11091,8 @@
       <c r="D255" s="4">
         <v>159</v>
       </c>
-      <c r="E255" s="4">
-        <v>1.329</v>
+      <c r="E255" s="5">
+        <v>1329</v>
       </c>
       <c r="F255" s="4">
         <v>202</v>
@@ -11099,8 +11115,8 @@
       <c r="L255" s="4">
         <v>79</v>
       </c>
-      <c r="M255" s="5">
-        <v>2.3130000000000002</v>
+      <c r="M255" s="6">
+        <v>2313</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11140,8 +11156,8 @@
       <c r="L256" s="4">
         <v>79</v>
       </c>
-      <c r="M256" s="5">
-        <v>2.0099999999999998</v>
+      <c r="M256" s="6">
+        <v>2010</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11155,8 +11171,8 @@
       <c r="D257" s="4">
         <v>184</v>
       </c>
-      <c r="E257" s="4">
-        <v>1.228</v>
+      <c r="E257" s="5">
+        <v>1228</v>
       </c>
       <c r="F257" s="4">
         <v>114</v>
@@ -11179,8 +11195,8 @@
       <c r="L257" s="4">
         <v>78</v>
       </c>
-      <c r="M257" s="5">
-        <v>2.0529999999999999</v>
+      <c r="M257" s="6">
+        <v>2053</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11220,8 +11236,8 @@
       <c r="L258" s="4">
         <v>86</v>
       </c>
-      <c r="M258" s="5">
-        <v>1.7210000000000001</v>
+      <c r="M258" s="6">
+        <v>1721</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11259,8 +11275,8 @@
       <c r="L259" s="4">
         <v>87</v>
       </c>
-      <c r="M259" s="5">
-        <v>1.764</v>
+      <c r="M259" s="6">
+        <v>1764</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11300,8 +11316,8 @@
       <c r="L260" s="4">
         <v>67</v>
       </c>
-      <c r="M260" s="5">
-        <v>1.3919999999999999</v>
+      <c r="M260" s="6">
+        <v>1392</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11339,8 +11355,8 @@
       <c r="L261" s="4">
         <v>63</v>
       </c>
-      <c r="M261" s="5">
-        <v>1.5349999999999999</v>
+      <c r="M261" s="6">
+        <v>1535</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11380,8 +11396,8 @@
       <c r="L262" s="4">
         <v>60</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.546</v>
+      <c r="M262" s="6">
+        <v>1546</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11389,8 +11405,8 @@
       <c r="B263" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="4">
-        <v>1.0169999999999999</v>
+      <c r="C263" s="5">
+        <v>1017</v>
       </c>
       <c r="D263" s="4">
         <v>477</v>
@@ -11419,54 +11435,54 @@
       <c r="L263" s="4">
         <v>101</v>
       </c>
-      <c r="M263" s="5">
-        <v>2.2309999999999999</v>
+      <c r="M263" s="6">
+        <v>2231</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>2.5459999999999998</v>
-      </c>
-      <c r="D264" s="5">
-        <v>2.3180000000000001</v>
-      </c>
-      <c r="E264" s="5">
-        <v>14.359</v>
-      </c>
-      <c r="F264" s="5">
-        <v>5.4740000000000002</v>
-      </c>
-      <c r="G264" s="5">
-        <v>8.2870000000000008</v>
-      </c>
-      <c r="H264" s="5">
-        <v>14.901</v>
-      </c>
-      <c r="I264" s="5">
-        <v>7.45</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="B264" s="8"/>
+      <c r="C264" s="6">
+        <v>2546</v>
+      </c>
+      <c r="D264" s="6">
+        <v>2318</v>
+      </c>
+      <c r="E264" s="6">
+        <v>14359</v>
+      </c>
+      <c r="F264" s="6">
+        <v>5474</v>
+      </c>
+      <c r="G264" s="6">
+        <v>8287</v>
+      </c>
+      <c r="H264" s="6">
+        <v>14901</v>
+      </c>
+      <c r="I264" s="6">
+        <v>7450</v>
+      </c>
+      <c r="J264" s="7">
         <v>781</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="7">
         <v>66</v>
       </c>
-      <c r="L264" s="5">
-        <v>1.722</v>
-      </c>
-      <c r="M264" s="5">
-        <v>57.904000000000003</v>
+      <c r="L264" s="6">
+        <v>1722</v>
+      </c>
+      <c r="M264" s="6">
+        <v>57904</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11538,7 +11554,7 @@
       <c r="L266" s="4">
         <v>6</v>
       </c>
-      <c r="M266" s="5">
+      <c r="M266" s="7">
         <v>653</v>
       </c>
     </row>
@@ -11577,7 +11593,7 @@
       <c r="L267" s="4">
         <v>10</v>
       </c>
-      <c r="M267" s="5">
+      <c r="M267" s="7">
         <v>717</v>
       </c>
     </row>
@@ -11618,7 +11634,7 @@
       <c r="L268" s="4">
         <v>5</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="7">
         <v>395</v>
       </c>
     </row>
@@ -11657,7 +11673,7 @@
       <c r="L269" s="4">
         <v>5</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="7">
         <v>435</v>
       </c>
     </row>
@@ -11698,7 +11714,7 @@
       <c r="L270" s="4">
         <v>7</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="7">
         <v>371</v>
       </c>
     </row>
@@ -11737,7 +11753,7 @@
       <c r="L271" s="4">
         <v>3</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="7">
         <v>352</v>
       </c>
     </row>
@@ -11778,7 +11794,7 @@
       <c r="L272" s="4">
         <v>8</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="7">
         <v>405</v>
       </c>
     </row>
@@ -11817,7 +11833,7 @@
       <c r="L273" s="4">
         <v>8</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="7">
         <v>369</v>
       </c>
     </row>
@@ -11858,7 +11874,7 @@
       <c r="L274" s="4">
         <v>6</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="7">
         <v>406</v>
       </c>
     </row>
@@ -11897,7 +11913,7 @@
       <c r="L275" s="4">
         <v>7</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="7">
         <v>365</v>
       </c>
     </row>
@@ -11938,7 +11954,7 @@
       <c r="L276" s="4">
         <v>7</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="7">
         <v>430</v>
       </c>
     </row>
@@ -11977,7 +11993,7 @@
       <c r="L277" s="4">
         <v>5</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="7">
         <v>441</v>
       </c>
     </row>
@@ -12018,7 +12034,7 @@
       <c r="L278" s="4">
         <v>10</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="7">
         <v>491</v>
       </c>
     </row>
@@ -12057,7 +12073,7 @@
       <c r="L279" s="4">
         <v>6</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="7">
         <v>464</v>
       </c>
     </row>
@@ -12098,7 +12114,7 @@
       <c r="L280" s="4">
         <v>18</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="7">
         <v>583</v>
       </c>
     </row>
@@ -12137,7 +12153,7 @@
       <c r="L281" s="4">
         <v>10</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="7">
         <v>542</v>
       </c>
     </row>
@@ -12178,7 +12194,7 @@
       <c r="L282" s="4">
         <v>22</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="7">
         <v>570</v>
       </c>
     </row>
@@ -12217,7 +12233,7 @@
       <c r="L283" s="4">
         <v>12</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="7">
         <v>533</v>
       </c>
     </row>
@@ -12258,7 +12274,7 @@
       <c r="L284" s="4">
         <v>14</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="7">
         <v>432</v>
       </c>
     </row>
@@ -12297,7 +12313,7 @@
       <c r="L285" s="4">
         <v>15</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="7">
         <v>486</v>
       </c>
     </row>
@@ -12338,7 +12354,7 @@
       <c r="L286" s="4">
         <v>10</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="7">
         <v>377</v>
       </c>
     </row>
@@ -12377,7 +12393,7 @@
       <c r="L287" s="4">
         <v>18</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="7">
         <v>444</v>
       </c>
     </row>
@@ -12418,7 +12434,7 @@
       <c r="L288" s="4">
         <v>25</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="7">
         <v>385</v>
       </c>
     </row>
@@ -12457,7 +12473,7 @@
       <c r="L289" s="4">
         <v>29</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="7">
         <v>608</v>
       </c>
     </row>
@@ -12465,46 +12481,46 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="8"/>
+      <c r="C290" s="7">
         <v>612</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="7">
         <v>424</v>
       </c>
-      <c r="E290" s="5">
-        <v>3.3140000000000001</v>
-      </c>
-      <c r="F290" s="5">
+      <c r="E290" s="6">
+        <v>3314</v>
+      </c>
+      <c r="F290" s="7">
         <v>750</v>
       </c>
-      <c r="G290" s="5">
-        <v>1.6240000000000001</v>
-      </c>
-      <c r="H290" s="5">
-        <v>2.9460000000000002</v>
-      </c>
-      <c r="I290" s="5">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="G290" s="6">
+        <v>1624</v>
+      </c>
+      <c r="H290" s="6">
+        <v>2946</v>
+      </c>
+      <c r="I290" s="6">
+        <v>1219</v>
+      </c>
+      <c r="J290" s="7">
         <v>95</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="7">
         <v>4</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="7">
         <v>266</v>
       </c>
-      <c r="M290" s="5">
-        <v>11.254</v>
+      <c r="M290" s="6">
+        <v>11254</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12576,7 +12592,7 @@
       <c r="L292" s="4">
         <v>4</v>
       </c>
-      <c r="M292" s="5">
+      <c r="M292" s="7">
         <v>290</v>
       </c>
     </row>
@@ -12615,7 +12631,7 @@
       <c r="L293" s="4">
         <v>1</v>
       </c>
-      <c r="M293" s="5">
+      <c r="M293" s="7">
         <v>278</v>
       </c>
     </row>
@@ -12656,7 +12672,7 @@
       <c r="L294" s="4">
         <v>2</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="7">
         <v>174</v>
       </c>
     </row>
@@ -12695,7 +12711,7 @@
       <c r="L295" s="4">
         <v>1</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="7">
         <v>130</v>
       </c>
     </row>
@@ -12736,7 +12752,7 @@
       <c r="L296" s="4">
         <v>2</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="7">
         <v>147</v>
       </c>
     </row>
@@ -12775,7 +12791,7 @@
       <c r="L297" s="4">
         <v>2</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="7">
         <v>120</v>
       </c>
     </row>
@@ -12816,7 +12832,7 @@
       <c r="L298" s="4">
         <v>3</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="7">
         <v>134</v>
       </c>
     </row>
@@ -12855,7 +12871,7 @@
       <c r="L299" s="4">
         <v>2</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="7">
         <v>149</v>
       </c>
     </row>
@@ -12896,7 +12912,7 @@
       <c r="L300" s="4">
         <v>2</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="7">
         <v>161</v>
       </c>
     </row>
@@ -12935,7 +12951,7 @@
       <c r="L301" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="7">
         <v>144</v>
       </c>
     </row>
@@ -12976,7 +12992,7 @@
       <c r="L302" s="4">
         <v>2</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="7">
         <v>163</v>
       </c>
     </row>
@@ -13015,7 +13031,7 @@
       <c r="L303" s="4">
         <v>2</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="7">
         <v>170</v>
       </c>
     </row>
@@ -13056,7 +13072,7 @@
       <c r="L304" s="4">
         <v>4</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="7">
         <v>191</v>
       </c>
     </row>
@@ -13095,7 +13111,7 @@
       <c r="L305" s="4">
         <v>3</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="7">
         <v>170</v>
       </c>
     </row>
@@ -13136,7 +13152,7 @@
       <c r="L306" s="4">
         <v>10</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="7">
         <v>212</v>
       </c>
     </row>
@@ -13175,7 +13191,7 @@
       <c r="L307" s="4">
         <v>5</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="7">
         <v>204</v>
       </c>
     </row>
@@ -13216,7 +13232,7 @@
       <c r="L308" s="4">
         <v>12</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="7">
         <v>229</v>
       </c>
     </row>
@@ -13255,7 +13271,7 @@
       <c r="L309" s="4">
         <v>6</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="7">
         <v>218</v>
       </c>
     </row>
@@ -13296,7 +13312,7 @@
       <c r="L310" s="4">
         <v>8</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="7">
         <v>196</v>
       </c>
     </row>
@@ -13335,7 +13351,7 @@
       <c r="L311" s="4">
         <v>8</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="7">
         <v>183</v>
       </c>
     </row>
@@ -13376,7 +13392,7 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="7">
         <v>121</v>
       </c>
     </row>
@@ -13415,7 +13431,7 @@
       <c r="L313" s="4">
         <v>5</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="7">
         <v>152</v>
       </c>
     </row>
@@ -13456,7 +13472,7 @@
       <c r="L314" s="4">
         <v>9</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="7">
         <v>145</v>
       </c>
     </row>
@@ -13495,7 +13511,7 @@
       <c r="L315" s="4">
         <v>11</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="7">
         <v>271</v>
       </c>
     </row>
@@ -13503,46 +13519,46 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="8"/>
+      <c r="C316" s="7">
         <v>97</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="7">
         <v>152</v>
       </c>
-      <c r="E316" s="5">
-        <v>1.359</v>
-      </c>
-      <c r="F316" s="5">
+      <c r="E316" s="6">
+        <v>1359</v>
+      </c>
+      <c r="F316" s="7">
         <v>288</v>
       </c>
-      <c r="G316" s="5">
+      <c r="G316" s="7">
         <v>768</v>
       </c>
-      <c r="H316" s="5">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="I316" s="5">
+      <c r="H316" s="6">
+        <v>1086</v>
+      </c>
+      <c r="I316" s="7">
         <v>448</v>
       </c>
-      <c r="J316" s="5">
+      <c r="J316" s="7">
         <v>44</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="7">
         <v>4</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="7">
         <v>106</v>
       </c>
-      <c r="M316" s="5">
-        <v>4.3520000000000003</v>
+      <c r="M316" s="6">
+        <v>4352</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13599,8 +13615,8 @@
       <c r="G318" s="4">
         <v>264</v>
       </c>
-      <c r="H318" s="4">
-        <v>1.163</v>
+      <c r="H318" s="5">
+        <v>1163</v>
       </c>
       <c r="I318" s="4">
         <v>254</v>
@@ -13614,8 +13630,8 @@
       <c r="L318" s="4">
         <v>12</v>
       </c>
-      <c r="M318" s="5">
-        <v>1.7</v>
+      <c r="M318" s="6">
+        <v>1700</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13638,8 +13654,8 @@
       <c r="G319" s="4">
         <v>261</v>
       </c>
-      <c r="H319" s="4">
-        <v>1.151</v>
+      <c r="H319" s="5">
+        <v>1151</v>
       </c>
       <c r="I319" s="4">
         <v>363</v>
@@ -13653,8 +13669,8 @@
       <c r="L319" s="4">
         <v>12</v>
       </c>
-      <c r="M319" s="5">
-        <v>1.806</v>
+      <c r="M319" s="6">
+        <v>1806</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13694,7 +13710,7 @@
       <c r="L320" s="4">
         <v>8</v>
       </c>
-      <c r="M320" s="5">
+      <c r="M320" s="7">
         <v>978</v>
       </c>
     </row>
@@ -13733,8 +13749,8 @@
       <c r="L321" s="4">
         <v>11</v>
       </c>
-      <c r="M321" s="5">
-        <v>1.0429999999999999</v>
+      <c r="M321" s="6">
+        <v>1043</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13774,7 +13790,7 @@
       <c r="L322" s="4">
         <v>7</v>
       </c>
-      <c r="M322" s="5">
+      <c r="M322" s="7">
         <v>869</v>
       </c>
     </row>
@@ -13813,7 +13829,7 @@
       <c r="L323" s="4">
         <v>10</v>
       </c>
-      <c r="M323" s="5">
+      <c r="M323" s="7">
         <v>930</v>
       </c>
     </row>
@@ -13854,7 +13870,7 @@
       <c r="L324" s="4">
         <v>2</v>
       </c>
-      <c r="M324" s="5">
+      <c r="M324" s="7">
         <v>988</v>
       </c>
     </row>
@@ -13893,8 +13909,8 @@
       <c r="L325" s="4">
         <v>10</v>
       </c>
-      <c r="M325" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M325" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13934,8 +13950,8 @@
       <c r="L326" s="4">
         <v>9</v>
       </c>
-      <c r="M326" s="5">
-        <v>1.19</v>
+      <c r="M326" s="6">
+        <v>1190</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13973,8 +13989,8 @@
       <c r="L327" s="4">
         <v>7</v>
       </c>
-      <c r="M327" s="5">
-        <v>1.163</v>
+      <c r="M327" s="6">
+        <v>1163</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14014,8 +14030,8 @@
       <c r="L328" s="4">
         <v>11</v>
       </c>
-      <c r="M328" s="5">
-        <v>1.0900000000000001</v>
+      <c r="M328" s="6">
+        <v>1090</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14053,8 +14069,8 @@
       <c r="L329" s="4">
         <v>6</v>
       </c>
-      <c r="M329" s="5">
-        <v>1.121</v>
+      <c r="M329" s="6">
+        <v>1121</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14094,8 +14110,8 @@
       <c r="L330" s="4">
         <v>11</v>
       </c>
-      <c r="M330" s="5">
-        <v>1.2110000000000001</v>
+      <c r="M330" s="6">
+        <v>1211</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14133,8 +14149,8 @@
       <c r="L331" s="4">
         <v>16</v>
       </c>
-      <c r="M331" s="5">
-        <v>1.1639999999999999</v>
+      <c r="M331" s="6">
+        <v>1164</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14174,8 +14190,8 @@
       <c r="L332" s="4">
         <v>27</v>
       </c>
-      <c r="M332" s="5">
-        <v>1.2509999999999999</v>
+      <c r="M332" s="6">
+        <v>1251</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14213,8 +14229,8 @@
       <c r="L333" s="4">
         <v>12</v>
       </c>
-      <c r="M333" s="5">
-        <v>1.2609999999999999</v>
+      <c r="M333" s="6">
+        <v>1261</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14254,8 +14270,8 @@
       <c r="L334" s="4">
         <v>18</v>
       </c>
-      <c r="M334" s="5">
-        <v>1.054</v>
+      <c r="M334" s="6">
+        <v>1054</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14293,8 +14309,8 @@
       <c r="L335" s="4">
         <v>17</v>
       </c>
-      <c r="M335" s="5">
-        <v>1.169</v>
+      <c r="M335" s="6">
+        <v>1169</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14334,7 +14350,7 @@
       <c r="L336" s="4">
         <v>23</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="7">
         <v>905</v>
       </c>
     </row>
@@ -14373,7 +14389,7 @@
       <c r="L337" s="4">
         <v>17</v>
       </c>
-      <c r="M337" s="5">
+      <c r="M337" s="7">
         <v>984</v>
       </c>
     </row>
@@ -14414,7 +14430,7 @@
       <c r="L338" s="4">
         <v>13</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="7">
         <v>695</v>
       </c>
     </row>
@@ -14453,7 +14469,7 @@
       <c r="L339" s="4">
         <v>22</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="7">
         <v>812</v>
       </c>
     </row>
@@ -14494,7 +14510,7 @@
       <c r="L340" s="4">
         <v>31</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="7">
         <v>783</v>
       </c>
     </row>
@@ -14533,54 +14549,54 @@
       <c r="L341" s="4">
         <v>52</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.2929999999999999</v>
+      <c r="M341" s="6">
+        <v>1293</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D342" s="5">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="E342" s="5">
-        <v>6.5250000000000004</v>
-      </c>
-      <c r="F342" s="5">
-        <v>2.1640000000000001</v>
-      </c>
-      <c r="G342" s="5">
-        <v>3.5209999999999999</v>
-      </c>
-      <c r="H342" s="5">
-        <v>7.6929999999999996</v>
-      </c>
-      <c r="I342" s="5">
-        <v>3.7810000000000001</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="B342" s="8"/>
+      <c r="C342" s="6">
+        <v>1005</v>
+      </c>
+      <c r="D342" s="6">
+        <v>1142</v>
+      </c>
+      <c r="E342" s="6">
+        <v>6525</v>
+      </c>
+      <c r="F342" s="6">
+        <v>2164</v>
+      </c>
+      <c r="G342" s="6">
+        <v>3521</v>
+      </c>
+      <c r="H342" s="6">
+        <v>7693</v>
+      </c>
+      <c r="I342" s="6">
+        <v>3781</v>
+      </c>
+      <c r="J342" s="7">
         <v>318</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="7">
         <v>19</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="7">
         <v>364</v>
       </c>
-      <c r="M342" s="5">
-        <v>26.532</v>
+      <c r="M342" s="6">
+        <v>26532</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14637,8 +14653,8 @@
       <c r="G344" s="4">
         <v>746</v>
       </c>
-      <c r="H344" s="4">
-        <v>3.226</v>
+      <c r="H344" s="5">
+        <v>3226</v>
       </c>
       <c r="I344" s="4">
         <v>643</v>
@@ -14652,8 +14668,8 @@
       <c r="L344" s="4">
         <v>34</v>
       </c>
-      <c r="M344" s="5">
-        <v>4.6689999999999996</v>
+      <c r="M344" s="6">
+        <v>4669</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14676,11 +14692,11 @@
       <c r="G345" s="4">
         <v>665</v>
       </c>
-      <c r="H345" s="4">
-        <v>3.0680000000000001</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.4610000000000001</v>
+      <c r="H345" s="5">
+        <v>3068</v>
+      </c>
+      <c r="I345" s="5">
+        <v>1461</v>
       </c>
       <c r="J345" s="4">
         <v>8</v>
@@ -14691,8 +14707,8 @@
       <c r="L345" s="4">
         <v>15</v>
       </c>
-      <c r="M345" s="5">
-        <v>5.2329999999999997</v>
+      <c r="M345" s="6">
+        <v>5233</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14717,11 +14733,11 @@
       <c r="G346" s="4">
         <v>500</v>
       </c>
-      <c r="H346" s="4">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="I346" s="4">
-        <v>1.5009999999999999</v>
+      <c r="H346" s="5">
+        <v>1195</v>
+      </c>
+      <c r="I346" s="5">
+        <v>1501</v>
       </c>
       <c r="J346" s="4">
         <v>125</v>
@@ -14732,8 +14748,8 @@
       <c r="L346" s="4">
         <v>21</v>
       </c>
-      <c r="M346" s="5">
-        <v>3.3620000000000001</v>
+      <c r="M346" s="6">
+        <v>3362</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14759,8 +14775,8 @@
       <c r="H347" s="4">
         <v>953</v>
       </c>
-      <c r="I347" s="4">
-        <v>2.4140000000000001</v>
+      <c r="I347" s="5">
+        <v>2414</v>
       </c>
       <c r="J347" s="4">
         <v>180</v>
@@ -14771,8 +14787,8 @@
       <c r="L347" s="4">
         <v>19</v>
       </c>
-      <c r="M347" s="5">
-        <v>4.1790000000000003</v>
+      <c r="M347" s="6">
+        <v>4179</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14797,11 +14813,11 @@
       <c r="G348" s="4">
         <v>253</v>
       </c>
-      <c r="H348" s="4">
-        <v>1.2270000000000001</v>
-      </c>
-      <c r="I348" s="4">
-        <v>1.3340000000000001</v>
+      <c r="H348" s="5">
+        <v>1227</v>
+      </c>
+      <c r="I348" s="5">
+        <v>1334</v>
       </c>
       <c r="J348" s="4">
         <v>255</v>
@@ -14812,8 +14828,8 @@
       <c r="L348" s="4">
         <v>17</v>
       </c>
-      <c r="M348" s="5">
-        <v>3.3759999999999999</v>
+      <c r="M348" s="6">
+        <v>3376</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14836,11 +14852,11 @@
       <c r="G349" s="4">
         <v>256</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="I349" s="4">
-        <v>1.5640000000000001</v>
+      <c r="H349" s="5">
+        <v>1074</v>
+      </c>
+      <c r="I349" s="5">
+        <v>1564</v>
       </c>
       <c r="J349" s="4">
         <v>224</v>
@@ -14851,8 +14867,8 @@
       <c r="L349" s="4">
         <v>17</v>
       </c>
-      <c r="M349" s="5">
-        <v>3.657</v>
+      <c r="M349" s="6">
+        <v>3657</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14877,11 +14893,11 @@
       <c r="G350" s="4">
         <v>200</v>
       </c>
-      <c r="H350" s="4">
-        <v>1.397</v>
-      </c>
-      <c r="I350" s="4">
-        <v>1.258</v>
+      <c r="H350" s="5">
+        <v>1397</v>
+      </c>
+      <c r="I350" s="5">
+        <v>1258</v>
       </c>
       <c r="J350" s="4">
         <v>245</v>
@@ -14892,8 +14908,8 @@
       <c r="L350" s="4">
         <v>22</v>
       </c>
-      <c r="M350" s="5">
-        <v>3.6080000000000001</v>
+      <c r="M350" s="6">
+        <v>3608</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14916,11 +14932,11 @@
       <c r="G351" s="4">
         <v>332</v>
       </c>
-      <c r="H351" s="4">
-        <v>1.139</v>
-      </c>
-      <c r="I351" s="4">
-        <v>1.0329999999999999</v>
+      <c r="H351" s="5">
+        <v>1139</v>
+      </c>
+      <c r="I351" s="5">
+        <v>1033</v>
       </c>
       <c r="J351" s="4">
         <v>170</v>
@@ -14931,8 +14947,8 @@
       <c r="L351" s="4">
         <v>13</v>
       </c>
-      <c r="M351" s="5">
-        <v>3.5470000000000002</v>
+      <c r="M351" s="6">
+        <v>3547</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14957,8 +14973,8 @@
       <c r="G352" s="4">
         <v>402</v>
       </c>
-      <c r="H352" s="4">
-        <v>1.37</v>
+      <c r="H352" s="5">
+        <v>1370</v>
       </c>
       <c r="I352" s="4">
         <v>961</v>
@@ -14972,8 +14988,8 @@
       <c r="L352" s="4">
         <v>21</v>
       </c>
-      <c r="M352" s="5">
-        <v>3.4980000000000002</v>
+      <c r="M352" s="6">
+        <v>3498</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15011,8 +15027,8 @@
       <c r="L353" s="4">
         <v>22</v>
       </c>
-      <c r="M353" s="5">
-        <v>3.4209999999999998</v>
+      <c r="M353" s="6">
+        <v>3421</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15037,8 +15053,8 @@
       <c r="G354" s="4">
         <v>437</v>
       </c>
-      <c r="H354" s="4">
-        <v>1.175</v>
+      <c r="H354" s="5">
+        <v>1175</v>
       </c>
       <c r="I354" s="4">
         <v>761</v>
@@ -15052,8 +15068,8 @@
       <c r="L354" s="4">
         <v>19</v>
       </c>
-      <c r="M354" s="5">
-        <v>3.1320000000000001</v>
+      <c r="M354" s="6">
+        <v>3132</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15091,8 +15107,8 @@
       <c r="L355" s="4">
         <v>21</v>
       </c>
-      <c r="M355" s="5">
-        <v>3.0379999999999998</v>
+      <c r="M355" s="6">
+        <v>3038</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15132,8 +15148,8 @@
       <c r="L356" s="4">
         <v>26</v>
       </c>
-      <c r="M356" s="5">
-        <v>2.762</v>
+      <c r="M356" s="6">
+        <v>2762</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15171,8 +15187,8 @@
       <c r="L357" s="4">
         <v>36</v>
       </c>
-      <c r="M357" s="5">
-        <v>2.9060000000000001</v>
+      <c r="M357" s="6">
+        <v>2906</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15212,8 +15228,8 @@
       <c r="L358" s="4">
         <v>38</v>
       </c>
-      <c r="M358" s="5">
-        <v>2.7970000000000002</v>
+      <c r="M358" s="6">
+        <v>2797</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15227,8 +15243,8 @@
       <c r="D359" s="4">
         <v>69</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.32</v>
+      <c r="E359" s="5">
+        <v>1320</v>
       </c>
       <c r="F359" s="4">
         <v>371</v>
@@ -15251,8 +15267,8 @@
       <c r="L359" s="4">
         <v>38</v>
       </c>
-      <c r="M359" s="5">
-        <v>2.7919999999999998</v>
+      <c r="M359" s="6">
+        <v>2792</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15292,8 +15308,8 @@
       <c r="L360" s="4">
         <v>32</v>
       </c>
-      <c r="M360" s="5">
-        <v>2.355</v>
+      <c r="M360" s="6">
+        <v>2355</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15307,8 +15323,8 @@
       <c r="D361" s="4">
         <v>95</v>
       </c>
-      <c r="E361" s="4">
-        <v>1.379</v>
+      <c r="E361" s="5">
+        <v>1379</v>
       </c>
       <c r="F361" s="4">
         <v>178</v>
@@ -15331,8 +15347,8 @@
       <c r="L361" s="4">
         <v>34</v>
       </c>
-      <c r="M361" s="5">
-        <v>2.355</v>
+      <c r="M361" s="6">
+        <v>2355</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15372,8 +15388,8 @@
       <c r="L362" s="4">
         <v>26</v>
       </c>
-      <c r="M362" s="5">
-        <v>1.891</v>
+      <c r="M362" s="6">
+        <v>1891</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15387,8 +15403,8 @@
       <c r="D363" s="4">
         <v>201</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.242</v>
+      <c r="E363" s="5">
+        <v>1242</v>
       </c>
       <c r="F363" s="4">
         <v>71</v>
@@ -15411,8 +15427,8 @@
       <c r="L363" s="4">
         <v>46</v>
       </c>
-      <c r="M363" s="5">
-        <v>2.0550000000000002</v>
+      <c r="M363" s="6">
+        <v>2055</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15452,8 +15468,8 @@
       <c r="L364" s="4">
         <v>25</v>
       </c>
-      <c r="M364" s="5">
-        <v>1.532</v>
+      <c r="M364" s="6">
+        <v>1532</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15491,8 +15507,8 @@
       <c r="L365" s="4">
         <v>50</v>
       </c>
-      <c r="M365" s="5">
-        <v>1.6459999999999999</v>
+      <c r="M365" s="6">
+        <v>1646</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15508,8 +15524,8 @@
       <c r="D366" s="4">
         <v>147</v>
       </c>
-      <c r="E366" s="4">
-        <v>1.0469999999999999</v>
+      <c r="E366" s="5">
+        <v>1047</v>
       </c>
       <c r="F366" s="4">
         <v>25</v>
@@ -15532,8 +15548,8 @@
       <c r="L366" s="4">
         <v>71</v>
       </c>
-      <c r="M366" s="5">
-        <v>1.7090000000000001</v>
+      <c r="M366" s="6">
+        <v>1709</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15547,8 +15563,8 @@
       <c r="D367" s="4">
         <v>451</v>
       </c>
-      <c r="E367" s="4">
-        <v>1.0940000000000001</v>
+      <c r="E367" s="5">
+        <v>1094</v>
       </c>
       <c r="F367" s="4">
         <v>8</v>
@@ -15571,47 +15587,57 @@
       <c r="L367" s="4">
         <v>114</v>
       </c>
-      <c r="M367" s="5">
-        <v>2.5409999999999999</v>
+      <c r="M367" s="6">
+        <v>2541</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="D368" s="5">
-        <v>1.464</v>
-      </c>
-      <c r="E368" s="5">
-        <v>13.459</v>
-      </c>
-      <c r="F368" s="5">
-        <v>5.5010000000000003</v>
-      </c>
-      <c r="G368" s="5">
-        <v>8.5519999999999996</v>
-      </c>
-      <c r="H368" s="5">
-        <v>21.94</v>
-      </c>
-      <c r="I368" s="5">
-        <v>16.416</v>
-      </c>
-      <c r="J368" s="5">
-        <v>1.7909999999999999</v>
-      </c>
-      <c r="K368" s="5">
+      <c r="B368" s="8"/>
+      <c r="C368" s="6">
+        <v>1674</v>
+      </c>
+      <c r="D368" s="6">
+        <v>1464</v>
+      </c>
+      <c r="E368" s="6">
+        <v>13459</v>
+      </c>
+      <c r="F368" s="6">
+        <v>5501</v>
+      </c>
+      <c r="G368" s="6">
+        <v>8552</v>
+      </c>
+      <c r="H368" s="6">
+        <v>21940</v>
+      </c>
+      <c r="I368" s="6">
+        <v>16416</v>
+      </c>
+      <c r="J368" s="6">
+        <v>1791</v>
+      </c>
+      <c r="K368" s="7">
         <v>487</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="7">
         <v>777</v>
       </c>
-      <c r="M368" s="5">
-        <v>72.061000000000007</v>
+      <c r="M368" s="6">
+        <v>72061</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A369" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A370" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
